--- a/example notebooks/Battery cost/material_price_unit_batpac.xlsx
+++ b/example notebooks/Battery cost/material_price_unit_batpac.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183179FA-9F16-437E-84A1-F6894A4E7529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{183179FA-9F16-437E-84A1-F6894A4E7529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9FC47C3-3CCD-41EF-9043-9BDDCABC7803}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values_Master" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
   <si>
     <t>Source</t>
   </si>
@@ -122,9 +122,6 @@
     <t>module thermal conductor</t>
   </si>
   <si>
-    <t>SOC and safety monitor based on cells is series (cells per module/cells in parallel)</t>
-  </si>
-  <si>
     <t>total_cell_interconnects</t>
   </si>
   <si>
@@ -170,7 +167,7 @@
     <t>cooling mains Fe</t>
   </si>
   <si>
-    <t>SOC and safety monitor based on module capacity (Ah)</t>
+    <t>cells per module/cells in parallel</t>
   </si>
 </sst>
 </file>
@@ -794,7 +791,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -921,9 +918,6 @@
       <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -942,7 +936,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -950,7 +944,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4">
         <v>0.04</v>
@@ -967,7 +961,7 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -1044,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1061,7 +1055,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <v>0.2</v>
@@ -1078,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4">
         <v>0.4</v>
@@ -1095,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4">
         <v>0.6</v>
@@ -1112,7 +1106,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -1129,10 +1123,10 @@
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1149,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4">
         <v>0.75</v>
@@ -1166,10 +1160,10 @@
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4">
         <v>3</v>
@@ -1183,10 +1177,10 @@
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4">
         <v>3</v>
@@ -1200,10 +1194,10 @@
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1217,10 +1211,10 @@
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -1234,10 +1228,10 @@
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1249,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
